--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\elec\PMCCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PMCCS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PMCCS Policy Mandated Capacity Construction Schedule</t>
   </si>
@@ -38,18 +43,12 @@
     <t>Year</t>
   </si>
   <si>
-    <t>coal (MW)</t>
-  </si>
-  <si>
     <t>nuclear (MW)</t>
   </si>
   <si>
     <t>hydro (MW)</t>
   </si>
   <si>
-    <t>wind (MW)</t>
-  </si>
-  <si>
     <t>solar PV (MW)</t>
   </si>
   <si>
@@ -75,12 +74,24 @@
   </si>
   <si>
     <t>natural gas peaker (MW)</t>
+  </si>
+  <si>
+    <t>hard coal (MW)</t>
+  </si>
+  <si>
+    <t>onshore wind (MW)</t>
+  </si>
+  <si>
+    <t>lignite (MW)</t>
+  </si>
+  <si>
+    <t>offshore wind (MW)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,6 +142,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -178,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -458,12 +472,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -477,13 +491,15 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C25:C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -601,7 +617,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -714,7 +730,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -827,7 +843,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -940,7 +956,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1053,7 +1069,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1166,7 +1182,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1279,7 +1295,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1392,7 +1408,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1505,7 +1521,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1618,7 +1634,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1731,7 +1747,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1839,6 +1855,232 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>
